--- a/src/main/resources/xlsx/pcs/wy-4-1_1.xlsx
+++ b/src/main/resources/xlsx/pcs/wy-4-1_1.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB305A4-5C52-45EE-A740-60D1605CDE80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="3600" yWindow="45" windowWidth="19695" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="党委委员" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>序号</t>
   </si>
@@ -65,11 +66,6 @@
   <si>
     <t>推荐提名的
 党员数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐提名的
-党支部数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -97,11 +93,20 @@
     <t>全校分党委数：pc    全校党支部数：bc     全校党员总数（含预备党员）：mc      应参会党员总数：ec      实参会党员总数：ac</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>推荐提名的党支部数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐提名的正式
+党员数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\.mm"/>
   </numFmts>
@@ -259,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -292,6 +297,9 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -316,7 +324,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -598,11 +609,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="M5" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -615,66 +626,73 @@
     <col min="7" max="7" width="9.5" style="8" customWidth="1"/>
     <col min="8" max="8" width="5.875" style="8" customWidth="1"/>
     <col min="9" max="9" width="9.5" style="8" customWidth="1"/>
-    <col min="10" max="10" width="34.625" style="11" customWidth="1"/>
-    <col min="11" max="12" width="11.625" customWidth="1"/>
+    <col min="10" max="10" width="26.375" style="11" customWidth="1"/>
+    <col min="11" max="11" width="8.5" style="22" customWidth="1"/>
+    <col min="12" max="12" width="8.75" customWidth="1"/>
+    <col min="13" max="13" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+    </row>
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
     </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+    <row r="3" spans="1:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+      <c r="L3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="16"/>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -694,7 +712,7 @@
         <v>9</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>6</v>
@@ -702,10 +720,11 @@
       <c r="J4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
     </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -718,32 +737,35 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="1"/>
+      <c r="K5" s="21"/>
       <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="K3:K4"/>
+  <mergeCells count="8">
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="A1:M1"/>
     <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:J3"/>
-    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="K3:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/main/resources/xlsx/pcs/wy-4-1_1.xlsx
+++ b/src/main/resources/xlsx/pcs/wy-4-1_1.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB305A4-5C52-45EE-A740-60D1605CDE80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="45" windowWidth="19695" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3600" yWindow="45" windowWidth="19695" windowHeight="15555"/>
   </bookViews>
   <sheets>
     <sheet name="党委委员" sheetId="1" r:id="rId1"/>
@@ -52,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所在单位及职务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>职称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,23 +85,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>全校分党委数：pc    全校党支部数：bc     全校党员总数（含预备党员）：mc      应参会党员总数：ec      实参会党员总数：ac</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>推荐提名的党支部数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>推荐提名的正式
 党员数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全校二级党组织数：pc    全校党支部数：bc     全校党员总数（含预备党员）：mc      应参会党员总数：ec      实参会党员总数：ac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\.mm"/>
   </numFmts>
@@ -297,6 +296,12 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -323,12 +328,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -609,11 +608,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M5" sqref="M1:M1048576"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -627,72 +626,72 @@
     <col min="8" max="8" width="5.875" style="8" customWidth="1"/>
     <col min="9" max="9" width="9.5" style="8" customWidth="1"/>
     <col min="10" max="10" width="26.375" style="11" customWidth="1"/>
-    <col min="11" max="11" width="8.5" style="22" customWidth="1"/>
+    <col min="11" max="11" width="8.5" style="13" customWidth="1"/>
     <col min="12" max="12" width="8.75" customWidth="1"/>
     <col min="13" max="13" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
+      <c r="A1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="A2" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>15</v>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="16"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -706,23 +705,23 @@
         <v>5</v>
       </c>
       <c r="F4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="H4" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
+        <v>15</v>
+      </c>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
@@ -737,24 +736,24 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="21"/>
+      <c r="K5" s="12"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
